--- a/resources/entity-sample-data/3. measures.xlsx
+++ b/resources/entity-sample-data/3. measures.xlsx
@@ -25,7 +25,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Statement 1</t>
+    <t>statement-01</t>
   </si>
   <si>
     <t>Measure 1</t>
@@ -46,7 +46,7 @@
     <t>Description of measure 3</t>
   </si>
   <si>
-    <t>Statement 3</t>
+    <t>statement-02</t>
   </si>
   <si>
     <t>Measure 4</t>
@@ -1427,9 +1427,7 @@
       <c r="A2" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="B2" t="s" s="5">
-        <v>5</v>
-      </c>
+      <c r="B2" s="5"/>
       <c r="C2" t="s" s="6">
         <v>5</v>
       </c>
@@ -1445,9 +1443,7 @@
       <c r="A3" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>7</v>
-      </c>
+      <c r="B3" s="5"/>
       <c r="C3" t="s" s="10">
         <v>7</v>
       </c>
@@ -1463,9 +1459,7 @@
       <c r="A4" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="B4" t="s" s="6">
-        <v>9</v>
-      </c>
+      <c r="B4" s="6"/>
       <c r="C4" t="s" s="11">
         <v>9</v>
       </c>
@@ -1481,9 +1475,7 @@
       <c r="A5" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B5" t="s" s="6">
-        <v>12</v>
-      </c>
+      <c r="B5" s="6"/>
       <c r="C5" t="s" s="11">
         <v>12</v>
       </c>
@@ -1499,9 +1491,7 @@
       <c r="A6" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="10">
-        <v>14</v>
-      </c>
+      <c r="B6" s="10"/>
       <c r="C6" t="s" s="11">
         <v>14</v>
       </c>
